--- a/medicine/Enfance/Le_Miroir_qui_glaçait/Le_Miroir_qui_glaçait.xlsx
+++ b/medicine/Enfance/Le_Miroir_qui_glaçait/Le_Miroir_qui_glaçait.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Miroir_qui_gla%C3%A7ait</t>
+          <t>Le_Miroir_qui_glaçait</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Miroir qui glaçait (titre original : The Secret of the Haunted Mirror) est un roman de Robert Arthur et de Mary Virginia Carey (en), paru en 1974 chez Random House aux États-Unis, faisant partie de la série policière pour adolescents Les Trois Jeunes Détectives.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Miroir_qui_gla%C3%A7ait</t>
+          <t>Le_Miroir_qui_glaçait</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">« Les trois jeunes détectives » (Hannibal, Peter et Bob) sont amenés à enquêter de la manière la plus inattendue qui soit : une amie de l'oncle Titus, madame Darnley, fait poursuivre par son chauffeur Warrington un homme qui tentait de voler un grand et lourd miroir entreposé dans sa belle demeure. Le voleur parvient à s'enfuir.
 Madame Darnley habite la maison qui appartenait jadis à l'illusionniste Drakestar. Elle fait visiter sa demeure aux trois jeunes gens et leur présente les membres de la maisonnée. Elle leur montre le miroir que l'homme voulait dérober : un miroir entouré d'un cadre en bois épais et en acier. Ce miroir est appelé « miroir de Chiavo », du nom de son créateur.
